--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7072289602749</v>
+        <v>32.18461566666667</v>
       </c>
       <c r="H2">
-        <v>31.7072289602749</v>
+        <v>96.55384699999999</v>
       </c>
       <c r="I2">
-        <v>0.3094728372021417</v>
+        <v>0.3067031097820925</v>
       </c>
       <c r="J2">
-        <v>0.3094728372021417</v>
+        <v>0.351256693442565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.1125382260581</v>
+        <v>79.66420866666668</v>
       </c>
       <c r="N2">
-        <v>58.1125382260581</v>
+        <v>238.992626</v>
       </c>
       <c r="O2">
-        <v>0.08651056168866815</v>
+        <v>0.1048332405251988</v>
       </c>
       <c r="P2">
-        <v>0.08651056168866815</v>
+        <v>0.1104048582881303</v>
       </c>
       <c r="Q2">
-        <v>1842.587554996352</v>
+        <v>2563.961938325803</v>
       </c>
       <c r="R2">
-        <v>1842.587554996352</v>
+        <v>23075.65744493222</v>
       </c>
       <c r="S2">
-        <v>0.02677266897374304</v>
+        <v>0.03215268087761257</v>
       </c>
       <c r="T2">
-        <v>0.02677266897374304</v>
+        <v>0.03878044546228363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7072289602749</v>
+        <v>32.18461566666667</v>
       </c>
       <c r="H3">
-        <v>31.7072289602749</v>
+        <v>96.55384699999999</v>
       </c>
       <c r="I3">
-        <v>0.3094728372021417</v>
+        <v>0.3067031097820925</v>
       </c>
       <c r="J3">
-        <v>0.3094728372021417</v>
+        <v>0.351256693442565</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>280.682565333435</v>
+        <v>316.1112466666667</v>
       </c>
       <c r="N3">
-        <v>280.682565333435</v>
+        <v>948.33374</v>
       </c>
       <c r="O3">
-        <v>0.4178445327711313</v>
+        <v>0.4159831235277584</v>
       </c>
       <c r="P3">
-        <v>0.4178445327711313</v>
+        <v>0.438091559254019</v>
       </c>
       <c r="Q3">
-        <v>8899.666364184541</v>
+        <v>10173.91898187753</v>
       </c>
       <c r="R3">
-        <v>8899.666364184541</v>
+        <v>91565.27083689778</v>
       </c>
       <c r="S3">
-        <v>0.1293115330660853</v>
+        <v>0.1275833176028318</v>
       </c>
       <c r="T3">
-        <v>0.1293115330660853</v>
+        <v>0.1538825925286643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7072289602749</v>
+        <v>32.18461566666667</v>
       </c>
       <c r="H4">
-        <v>31.7072289602749</v>
+        <v>96.55384699999999</v>
       </c>
       <c r="I4">
-        <v>0.3094728372021417</v>
+        <v>0.3067031097820925</v>
       </c>
       <c r="J4">
-        <v>0.3094728372021417</v>
+        <v>0.351256693442565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>105.760512078184</v>
+        <v>116.842289</v>
       </c>
       <c r="N4">
-        <v>105.760512078184</v>
+        <v>350.526867</v>
       </c>
       <c r="O4">
-        <v>0.1574428098248548</v>
+        <v>0.1537573270514019</v>
       </c>
       <c r="P4">
-        <v>0.1574428098248548</v>
+        <v>0.1619291344885147</v>
       </c>
       <c r="Q4">
-        <v>3353.372771418899</v>
+        <v>3760.524165078595</v>
       </c>
       <c r="R4">
-        <v>3353.372771418899</v>
+        <v>33844.71748570735</v>
       </c>
       <c r="S4">
-        <v>0.04872427305357505</v>
+        <v>0.04715785035844722</v>
       </c>
       <c r="T4">
-        <v>0.04872427305357505</v>
+        <v>0.0568786923524521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.7072289602749</v>
+        <v>32.18461566666667</v>
       </c>
       <c r="H5">
-        <v>31.7072289602749</v>
+        <v>96.55384699999999</v>
       </c>
       <c r="I5">
-        <v>0.3094728372021417</v>
+        <v>0.3067031097820925</v>
       </c>
       <c r="J5">
-        <v>0.3094728372021417</v>
+        <v>0.351256693442565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.488311618407</v>
+        <v>132.2480086666667</v>
       </c>
       <c r="N5">
-        <v>128.488311618407</v>
+        <v>396.744026</v>
       </c>
       <c r="O5">
-        <v>0.1912770694217018</v>
+        <v>0.1740303146616488</v>
       </c>
       <c r="P5">
-        <v>0.1912770694217018</v>
+        <v>0.1832795793757766</v>
       </c>
       <c r="Q5">
-        <v>4074.008315203981</v>
+        <v>4256.351331618669</v>
       </c>
       <c r="R5">
-        <v>4074.008315203981</v>
+        <v>38307.16198456802</v>
       </c>
       <c r="S5">
-        <v>0.0591950573656451</v>
+        <v>0.05337563870308377</v>
       </c>
       <c r="T5">
-        <v>0.0591950573656451</v>
+        <v>0.06437817902707943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.7072289602749</v>
+        <v>32.18461566666667</v>
       </c>
       <c r="H6">
-        <v>31.7072289602749</v>
+        <v>96.55384699999999</v>
       </c>
       <c r="I6">
-        <v>0.3094728372021417</v>
+        <v>0.3067031097820925</v>
       </c>
       <c r="J6">
-        <v>0.3094728372021417</v>
+        <v>0.351256693442565</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.69530425176259</v>
+        <v>115.04788</v>
       </c>
       <c r="N6">
-        <v>98.69530425176259</v>
+        <v>230.09576</v>
       </c>
       <c r="O6">
-        <v>0.146925026293644</v>
+        <v>0.1513959942339921</v>
       </c>
       <c r="P6">
-        <v>0.146925026293644</v>
+        <v>0.1062948685935592</v>
       </c>
       <c r="Q6">
-        <v>3129.354609214629</v>
+        <v>3702.771801064786</v>
       </c>
       <c r="R6">
-        <v>3129.354609214629</v>
+        <v>22216.63080638872</v>
       </c>
       <c r="S6">
-        <v>0.04546930474309329</v>
+        <v>0.04643362224011713</v>
       </c>
       <c r="T6">
-        <v>0.04546930474309329</v>
+        <v>0.03733678407208556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.0236470762476</v>
+        <v>32.37637266666667</v>
       </c>
       <c r="H7">
-        <v>31.0236470762476</v>
+        <v>97.12911800000001</v>
       </c>
       <c r="I7">
-        <v>0.3028008563306831</v>
+        <v>0.308530457010085</v>
       </c>
       <c r="J7">
-        <v>0.3028008563306831</v>
+        <v>0.3533494923891819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.1125382260581</v>
+        <v>79.66420866666668</v>
       </c>
       <c r="N7">
-        <v>58.1125382260581</v>
+        <v>238.992626</v>
       </c>
       <c r="O7">
-        <v>0.08651056168866815</v>
+        <v>0.1048332405251988</v>
       </c>
       <c r="P7">
-        <v>0.08651056168866815</v>
+        <v>0.1104048582881303</v>
       </c>
       <c r="Q7">
-        <v>1802.862876630174</v>
+        <v>2579.238107987097</v>
       </c>
       <c r="R7">
-        <v>1802.862876630174</v>
+        <v>23213.14297188387</v>
       </c>
       <c r="S7">
-        <v>0.0261954721609771</v>
+        <v>0.03234424760908776</v>
       </c>
       <c r="T7">
-        <v>0.0261954721609771</v>
+        <v>0.03901150063341041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.0236470762476</v>
+        <v>32.37637266666667</v>
       </c>
       <c r="H8">
-        <v>31.0236470762476</v>
+        <v>97.12911800000001</v>
       </c>
       <c r="I8">
-        <v>0.3028008563306831</v>
+        <v>0.308530457010085</v>
       </c>
       <c r="J8">
-        <v>0.3028008563306831</v>
+        <v>0.3533494923891819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>280.682565333435</v>
+        <v>316.1112466666667</v>
       </c>
       <c r="N8">
-        <v>280.682565333435</v>
+        <v>948.33374</v>
       </c>
       <c r="O8">
-        <v>0.4178445327711313</v>
+        <v>0.4159831235277584</v>
       </c>
       <c r="P8">
-        <v>0.4178445327711313</v>
+        <v>0.438091559254019</v>
       </c>
       <c r="Q8">
-        <v>8707.796847360296</v>
+        <v>10234.53552620459</v>
       </c>
       <c r="R8">
-        <v>8707.796847360296</v>
+        <v>92110.81973584133</v>
       </c>
       <c r="S8">
-        <v>0.1265236823361927</v>
+        <v>0.1283434632105019</v>
       </c>
       <c r="T8">
-        <v>0.1265236823361927</v>
+        <v>0.1547994300823928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.0236470762476</v>
+        <v>32.37637266666667</v>
       </c>
       <c r="H9">
-        <v>31.0236470762476</v>
+        <v>97.12911800000001</v>
       </c>
       <c r="I9">
-        <v>0.3028008563306831</v>
+        <v>0.308530457010085</v>
       </c>
       <c r="J9">
-        <v>0.3028008563306831</v>
+        <v>0.3533494923891819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>105.760512078184</v>
+        <v>116.842289</v>
       </c>
       <c r="N9">
-        <v>105.760512078184</v>
+        <v>350.526867</v>
       </c>
       <c r="O9">
-        <v>0.1574428098248548</v>
+        <v>0.1537573270514019</v>
       </c>
       <c r="P9">
-        <v>0.1574428098248548</v>
+        <v>0.1619291344885147</v>
       </c>
       <c r="Q9">
-        <v>3281.076801316802</v>
+        <v>3782.929491890368</v>
       </c>
       <c r="R9">
-        <v>3281.076801316802</v>
+        <v>34046.36542701331</v>
       </c>
       <c r="S9">
-        <v>0.04767381763807491</v>
+        <v>0.04743881838381813</v>
       </c>
       <c r="T9">
-        <v>0.04767381763807491</v>
+        <v>0.05721757747453625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.0236470762476</v>
+        <v>32.37637266666667</v>
       </c>
       <c r="H10">
-        <v>31.0236470762476</v>
+        <v>97.12911800000001</v>
       </c>
       <c r="I10">
-        <v>0.3028008563306831</v>
+        <v>0.308530457010085</v>
       </c>
       <c r="J10">
-        <v>0.3028008563306831</v>
+        <v>0.3533494923891819</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>128.488311618407</v>
+        <v>132.2480086666667</v>
       </c>
       <c r="N10">
-        <v>128.488311618407</v>
+        <v>396.744026</v>
       </c>
       <c r="O10">
-        <v>0.1912770694217018</v>
+        <v>0.1740303146616488</v>
       </c>
       <c r="P10">
-        <v>0.1912770694217018</v>
+        <v>0.1832795793757766</v>
       </c>
       <c r="Q10">
-        <v>3986.176033072383</v>
+        <v>4281.710813016563</v>
       </c>
       <c r="R10">
-        <v>3986.176033072383</v>
+        <v>38535.39731714907</v>
       </c>
       <c r="S10">
-        <v>0.05791886041731483</v>
+        <v>0.05369365251616738</v>
       </c>
       <c r="T10">
-        <v>0.05791886041731483</v>
+        <v>0.06476174633773343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.0236470762476</v>
+        <v>32.37637266666667</v>
       </c>
       <c r="H11">
-        <v>31.0236470762476</v>
+        <v>97.12911800000001</v>
       </c>
       <c r="I11">
-        <v>0.3028008563306831</v>
+        <v>0.308530457010085</v>
       </c>
       <c r="J11">
-        <v>0.3028008563306831</v>
+        <v>0.3533494923891819</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>98.69530425176259</v>
+        <v>115.04788</v>
       </c>
       <c r="N11">
-        <v>98.69530425176259</v>
+        <v>230.09576</v>
       </c>
       <c r="O11">
-        <v>0.146925026293644</v>
+        <v>0.1513959942339921</v>
       </c>
       <c r="P11">
-        <v>0.146925026293644</v>
+        <v>0.1062948685935592</v>
       </c>
       <c r="Q11">
-        <v>3061.888287189562</v>
+        <v>3724.833037389947</v>
       </c>
       <c r="R11">
-        <v>3061.888287189562</v>
+        <v>22348.99822433968</v>
       </c>
       <c r="S11">
-        <v>0.04448902377812354</v>
+        <v>0.04671027529050977</v>
       </c>
       <c r="T11">
-        <v>0.04448902377812354</v>
+        <v>0.03755923786110894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>39.7247360518636</v>
+        <v>0.2633643333333334</v>
       </c>
       <c r="H12">
-        <v>39.7247360518636</v>
+        <v>0.790093</v>
       </c>
       <c r="I12">
-        <v>0.3877263064671751</v>
+        <v>0.002509728898912364</v>
       </c>
       <c r="J12">
-        <v>0.3877263064671751</v>
+        <v>0.002874307583954854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.1125382260581</v>
+        <v>79.66420866666668</v>
       </c>
       <c r="N12">
-        <v>58.1125382260581</v>
+        <v>238.992626</v>
       </c>
       <c r="O12">
-        <v>0.08651056168866815</v>
+        <v>0.1048332405251988</v>
       </c>
       <c r="P12">
-        <v>0.08651056168866815</v>
+        <v>0.1104048582881303</v>
       </c>
       <c r="Q12">
-        <v>2308.505242333992</v>
+        <v>20.98071120602423</v>
       </c>
       <c r="R12">
-        <v>2308.505242333992</v>
+        <v>188.826400854218</v>
       </c>
       <c r="S12">
-        <v>0.033542420553948</v>
+        <v>0.0002631030133127223</v>
       </c>
       <c r="T12">
-        <v>0.033542420553948</v>
+        <v>0.0003173375214830338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>39.7247360518636</v>
+        <v>0.2633643333333334</v>
       </c>
       <c r="H13">
-        <v>39.7247360518636</v>
+        <v>0.790093</v>
       </c>
       <c r="I13">
-        <v>0.3877263064671751</v>
+        <v>0.002509728898912364</v>
       </c>
       <c r="J13">
-        <v>0.3877263064671751</v>
+        <v>0.002874307583954854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>280.682565333435</v>
+        <v>316.1112466666667</v>
       </c>
       <c r="N13">
-        <v>280.682565333435</v>
+        <v>948.33374</v>
       </c>
       <c r="O13">
-        <v>0.4178445327711313</v>
+        <v>0.4159831235277584</v>
       </c>
       <c r="P13">
-        <v>0.4178445327711313</v>
+        <v>0.438091559254019</v>
       </c>
       <c r="Q13">
-        <v>11150.04082223067</v>
+        <v>83.25242773753557</v>
       </c>
       <c r="R13">
-        <v>11150.04082223067</v>
+        <v>749.2718496378201</v>
       </c>
       <c r="S13">
-        <v>0.1620093173688532</v>
+        <v>0.001044004866577447</v>
       </c>
       <c r="T13">
-        <v>0.1620093173688532</v>
+        <v>0.001259209891230434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>39.7247360518636</v>
+        <v>0.2633643333333334</v>
       </c>
       <c r="H14">
-        <v>39.7247360518636</v>
+        <v>0.790093</v>
       </c>
       <c r="I14">
-        <v>0.3877263064671751</v>
+        <v>0.002509728898912364</v>
       </c>
       <c r="J14">
-        <v>0.3877263064671751</v>
+        <v>0.002874307583954854</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.760512078184</v>
+        <v>116.842289</v>
       </c>
       <c r="N14">
-        <v>105.760512078184</v>
+        <v>350.526867</v>
       </c>
       <c r="O14">
-        <v>0.1574428098248548</v>
+        <v>0.1537573270514019</v>
       </c>
       <c r="P14">
-        <v>0.1574428098248548</v>
+        <v>0.1619291344885147</v>
       </c>
       <c r="Q14">
-        <v>4201.308427015791</v>
+        <v>30.77209154762567</v>
       </c>
       <c r="R14">
-        <v>4201.308427015791</v>
+        <v>276.948823928631</v>
       </c>
       <c r="S14">
-        <v>0.06104471913320481</v>
+        <v>0.0003858892071204231</v>
       </c>
       <c r="T14">
-        <v>0.06104471913320481</v>
+        <v>0.0004654341393235834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>39.7247360518636</v>
+        <v>0.2633643333333334</v>
       </c>
       <c r="H15">
-        <v>39.7247360518636</v>
+        <v>0.790093</v>
       </c>
       <c r="I15">
-        <v>0.3877263064671751</v>
+        <v>0.002509728898912364</v>
       </c>
       <c r="J15">
-        <v>0.3877263064671751</v>
+        <v>0.002874307583954854</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>128.488311618407</v>
+        <v>132.2480086666667</v>
       </c>
       <c r="N15">
-        <v>128.488311618407</v>
+        <v>396.744026</v>
       </c>
       <c r="O15">
-        <v>0.1912770694217018</v>
+        <v>0.1740303146616488</v>
       </c>
       <c r="P15">
-        <v>0.1912770694217018</v>
+        <v>0.1832795793757766</v>
       </c>
       <c r="Q15">
-        <v>5104.164264790817</v>
+        <v>34.82940863715756</v>
       </c>
       <c r="R15">
-        <v>5104.164264790817</v>
+        <v>313.464677734418</v>
       </c>
       <c r="S15">
-        <v>0.07416315163874189</v>
+        <v>0.0004367689099931519</v>
       </c>
       <c r="T15">
-        <v>0.07416315163874189</v>
+        <v>0.0005268018849838502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2633643333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.790093</v>
+      </c>
+      <c r="I16">
+        <v>0.002509728898912364</v>
+      </c>
+      <c r="J16">
+        <v>0.002874307583954854</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>115.04788</v>
+      </c>
+      <c r="N16">
+        <v>230.09576</v>
+      </c>
+      <c r="O16">
+        <v>0.1513959942339921</v>
+      </c>
+      <c r="P16">
+        <v>0.1062948685935592</v>
+      </c>
+      <c r="Q16">
+        <v>30.29950821761334</v>
+      </c>
+      <c r="R16">
+        <v>181.79704930568</v>
+      </c>
+      <c r="S16">
+        <v>0.0003799629019086196</v>
+      </c>
+      <c r="T16">
+        <v>0.0003055241469339518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1820796666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.546239</v>
+      </c>
+      <c r="I17">
+        <v>0.00173512713568275</v>
+      </c>
+      <c r="J17">
+        <v>0.001987182395429291</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>79.66420866666668</v>
+      </c>
+      <c r="N17">
+        <v>238.992626</v>
+      </c>
+      <c r="O17">
+        <v>0.1048332405251988</v>
+      </c>
+      <c r="P17">
+        <v>0.1104048582881303</v>
+      </c>
+      <c r="Q17">
+        <v>14.50523255929045</v>
+      </c>
+      <c r="R17">
+        <v>130.547093033614</v>
+      </c>
+      <c r="S17">
+        <v>0.000181899000356829</v>
+      </c>
+      <c r="T17">
+        <v>0.0002193945907600383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1820796666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.546239</v>
+      </c>
+      <c r="I18">
+        <v>0.00173512713568275</v>
+      </c>
+      <c r="J18">
+        <v>0.001987182395429291</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>316.1112466666667</v>
+      </c>
+      <c r="N18">
+        <v>948.33374</v>
+      </c>
+      <c r="O18">
+        <v>0.4159831235277584</v>
+      </c>
+      <c r="P18">
+        <v>0.438091559254019</v>
+      </c>
+      <c r="Q18">
+        <v>57.55743042265111</v>
+      </c>
+      <c r="R18">
+        <v>518.01687380386</v>
+      </c>
+      <c r="S18">
+        <v>0.0007217836056190829</v>
+      </c>
+      <c r="T18">
+        <v>0.000870567834135755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1820796666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.546239</v>
+      </c>
+      <c r="I19">
+        <v>0.00173512713568275</v>
+      </c>
+      <c r="J19">
+        <v>0.001987182395429291</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>116.842289</v>
+      </c>
+      <c r="N19">
+        <v>350.526867</v>
+      </c>
+      <c r="O19">
+        <v>0.1537573270514019</v>
+      </c>
+      <c r="P19">
+        <v>0.1619291344885147</v>
+      </c>
+      <c r="Q19">
+        <v>21.27460503369034</v>
+      </c>
+      <c r="R19">
+        <v>191.471445303213</v>
+      </c>
+      <c r="S19">
+        <v>0.0002667885104769348</v>
+      </c>
+      <c r="T19">
+        <v>0.0003217827253626786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1820796666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.546239</v>
+      </c>
+      <c r="I20">
+        <v>0.00173512713568275</v>
+      </c>
+      <c r="J20">
+        <v>0.001987182395429291</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>132.2480086666667</v>
+      </c>
+      <c r="N20">
+        <v>396.744026</v>
+      </c>
+      <c r="O20">
+        <v>0.1740303146616488</v>
+      </c>
+      <c r="P20">
+        <v>0.1832795793757766</v>
+      </c>
+      <c r="Q20">
+        <v>24.07967333535711</v>
+      </c>
+      <c r="R20">
+        <v>216.717060018214</v>
+      </c>
+      <c r="S20">
+        <v>0.0003019647214008342</v>
+      </c>
+      <c r="T20">
+        <v>0.0003642099535772287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1820796666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.546239</v>
+      </c>
+      <c r="I21">
+        <v>0.00173512713568275</v>
+      </c>
+      <c r="J21">
+        <v>0.001987182395429291</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>115.04788</v>
+      </c>
+      <c r="N21">
+        <v>230.09576</v>
+      </c>
+      <c r="O21">
+        <v>0.1513959942339921</v>
+      </c>
+      <c r="P21">
+        <v>0.1062948685935592</v>
+      </c>
+      <c r="Q21">
+        <v>20.94787964110667</v>
+      </c>
+      <c r="R21">
+        <v>125.68727784664</v>
+      </c>
+      <c r="S21">
+        <v>0.0002626912978290688</v>
+      </c>
+      <c r="T21">
+        <v>0.0002112272915935907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.930931</v>
+      </c>
+      <c r="H22">
+        <v>79.861862</v>
+      </c>
+      <c r="I22">
+        <v>0.3805215771732274</v>
+      </c>
+      <c r="J22">
+        <v>0.2905323241888688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>79.66420866666668</v>
+      </c>
+      <c r="N22">
+        <v>238.992626</v>
+      </c>
+      <c r="O22">
+        <v>0.1048332405251988</v>
+      </c>
+      <c r="P22">
+        <v>0.1104048582881303</v>
+      </c>
+      <c r="Q22">
+        <v>3181.066019438269</v>
+      </c>
+      <c r="R22">
+        <v>19086.39611662961</v>
+      </c>
+      <c r="S22">
+        <v>0.03989131002482896</v>
+      </c>
+      <c r="T22">
+        <v>0.0320761800801932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.930931</v>
+      </c>
+      <c r="H23">
+        <v>79.861862</v>
+      </c>
+      <c r="I23">
+        <v>0.3805215771732274</v>
+      </c>
+      <c r="J23">
+        <v>0.2905323241888688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>316.1112466666667</v>
+      </c>
+      <c r="N23">
+        <v>948.33374</v>
+      </c>
+      <c r="O23">
+        <v>0.4159831235277584</v>
+      </c>
+      <c r="P23">
+        <v>0.438091559254019</v>
+      </c>
+      <c r="Q23">
+        <v>12622.61637897065</v>
+      </c>
+      <c r="R23">
+        <v>75735.69827382389</v>
+      </c>
+      <c r="S23">
+        <v>0.1582905542422281</v>
+      </c>
+      <c r="T23">
+        <v>0.1272797589175957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>39.7247360518636</v>
-      </c>
-      <c r="H16">
-        <v>39.7247360518636</v>
-      </c>
-      <c r="I16">
-        <v>0.3877263064671751</v>
-      </c>
-      <c r="J16">
-        <v>0.3877263064671751</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>98.69530425176259</v>
-      </c>
-      <c r="N16">
-        <v>98.69530425176259</v>
-      </c>
-      <c r="O16">
-        <v>0.146925026293644</v>
-      </c>
-      <c r="P16">
-        <v>0.146925026293644</v>
-      </c>
-      <c r="Q16">
-        <v>3920.644910959641</v>
-      </c>
-      <c r="R16">
-        <v>3920.644910959641</v>
-      </c>
-      <c r="S16">
-        <v>0.05696669777242717</v>
-      </c>
-      <c r="T16">
-        <v>0.05696669777242717</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.930931</v>
+      </c>
+      <c r="H24">
+        <v>79.861862</v>
+      </c>
+      <c r="I24">
+        <v>0.3805215771732274</v>
+      </c>
+      <c r="J24">
+        <v>0.2905323241888688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>116.842289</v>
+      </c>
+      <c r="N24">
+        <v>350.526867</v>
+      </c>
+      <c r="O24">
+        <v>0.1537573270514019</v>
+      </c>
+      <c r="P24">
+        <v>0.1619291344885147</v>
+      </c>
+      <c r="Q24">
+        <v>4665.62137994106</v>
+      </c>
+      <c r="R24">
+        <v>27993.72827964636</v>
+      </c>
+      <c r="S24">
+        <v>0.05850798059153919</v>
+      </c>
+      <c r="T24">
+        <v>0.0470456477968401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.930931</v>
+      </c>
+      <c r="H25">
+        <v>79.861862</v>
+      </c>
+      <c r="I25">
+        <v>0.3805215771732274</v>
+      </c>
+      <c r="J25">
+        <v>0.2905323241888688</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>132.2480086666667</v>
+      </c>
+      <c r="N25">
+        <v>396.744026</v>
+      </c>
+      <c r="O25">
+        <v>0.1740303146616488</v>
+      </c>
+      <c r="P25">
+        <v>0.1832795793757766</v>
+      </c>
+      <c r="Q25">
+        <v>5280.786108956068</v>
+      </c>
+      <c r="R25">
+        <v>31684.71665373641</v>
+      </c>
+      <c r="S25">
+        <v>0.06622228981100362</v>
+      </c>
+      <c r="T25">
+        <v>0.05324864217240265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.930931</v>
+      </c>
+      <c r="H26">
+        <v>79.861862</v>
+      </c>
+      <c r="I26">
+        <v>0.3805215771732274</v>
+      </c>
+      <c r="J26">
+        <v>0.2905323241888688</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>115.04788</v>
+      </c>
+      <c r="N26">
+        <v>230.09576</v>
+      </c>
+      <c r="O26">
+        <v>0.1513959942339921</v>
+      </c>
+      <c r="P26">
+        <v>0.1062948685935592</v>
+      </c>
+      <c r="Q26">
+        <v>4593.96895797628</v>
+      </c>
+      <c r="R26">
+        <v>18375.87583190512</v>
+      </c>
+      <c r="S26">
+        <v>0.05760944250362752</v>
+      </c>
+      <c r="T26">
+        <v>0.03088209522183715</v>
       </c>
     </row>
   </sheetData>
